--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3069902.733794237</v>
+        <v>3067357.547720953</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8662070.799216904</v>
+        <v>8662070.799216902</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>295.9408816142891</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>110.1458031968981</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>139.8939792152983</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.96985915739666</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>337.4550179536792</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>319.4121462068567</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>161.1486436253825</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>61.32905684098937</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.437456820198217</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>142.5318748130975</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.3860496764733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>73.93222849083779</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3670,13 +3670,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,10 +3724,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>112.7304175246775</v>
+        <v>90.85912858529821</v>
       </c>
     </row>
     <row r="41">
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>82.30974811734292</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.203741822952</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.241224882541</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>961.9755262757901</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E2" t="n">
-        <v>576.1872736775458</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>165.2013688879383</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.803581887074</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.1154545468208</v>
+        <v>195.250031532787</v>
       </c>
       <c r="C4" t="n">
-        <v>257.1154545468208</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>257.1154545468208</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>257.1154545468208</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>257.1154545468208</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.1154545468208</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.36708197935098</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.36708197935098</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>484.4236418782191</v>
       </c>
       <c r="T4" t="n">
-        <v>257.1154545468208</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U4" t="n">
-        <v>257.1154545468208</v>
+        <v>195.250031532787</v>
       </c>
       <c r="V4" t="n">
-        <v>257.1154545468208</v>
+        <v>195.250031532787</v>
       </c>
       <c r="W4" t="n">
-        <v>257.1154545468208</v>
+        <v>195.250031532787</v>
       </c>
       <c r="X4" t="n">
-        <v>257.1154545468208</v>
+        <v>195.250031532787</v>
       </c>
       <c r="Y4" t="n">
-        <v>257.1154545468208</v>
+        <v>195.250031532787</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.981643776797</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D5" t="n">
-        <v>819.715945170047</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1373.167964150355</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>983.0286321745434</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326643</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>156.7517573047574</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>392.1589755202269</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>392.1589755202269</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>392.1589755202269</v>
       </c>
       <c r="E8" t="n">
-        <v>73.93586029273641</v>
+        <v>392.1589755202269</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>385.2134747710234</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>372.1660970478549</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,25 +4802,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1830.581063083657</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>2024.91527597564</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2195.084301292599</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2624.399347631893</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2694.687013422063</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2479.887151689774</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2226.195448434925</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1895.132561091354</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1542.36390582124</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1168.89814756016</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>778.7588155843487</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>240.2100533406172</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>744.5715932067358</v>
       </c>
       <c r="M9" t="n">
-        <v>1441.490579173192</v>
+        <v>1385.11694267384</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>197.914572540665</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>634.2475255767915</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>379.5630373709047</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>379.5630373709047</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>379.5630373709047</v>
       </c>
       <c r="Y10" t="n">
-        <v>849.4473100711502</v>
+        <v>379.5630373709047</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5042,7 +5042,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5127,19 +5127,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>407.9027098310023</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>417.9651836029414</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,22 +5650,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5738,7 +5738,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,7 +5747,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5756,16 +5756,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5887,22 +5887,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6124,22 +6124,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6215,37 +6215,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>250.5823850776722</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>250.5823850776722</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,10 +6698,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6841,16 +6841,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7023,19 +7023,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1394.184733704551</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7400,25 +7400,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>632.7557007032921</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>549.6145409888043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8462,16 +8462,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>38.14709430781211</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>378.0407240669644</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>240.7280987119432</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,13 +8690,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>66.36248435538607</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25558,13 +25558,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,10 +25612,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>105.8542358274173</v>
+        <v>127.7255247667966</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>66.30572490086944</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>731311.4914411041</v>
+        <v>731311.4914411042</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>731311.4914411041</v>
+        <v>731311.4914411042</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731311.4914411041</v>
+        <v>731311.4914411042</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846406</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="H2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.609736506</v>
+      </c>
+      <c r="L2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="J2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365057</v>
-      </c>
       <c r="M2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365059</v>
       </c>
     </row>
     <row r="3">
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682752</v>
+        <v>5677.536566682753</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682775</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682769</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
+        <v>5677.536566682767</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.536566682695</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5677.536566682754</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5677.536566682778</v>
+      </c>
+      <c r="N4" t="n">
         <v>5677.536566682751</v>
       </c>
-      <c r="I4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682772</v>
-      </c>
       <c r="O4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-184863.8683563465</v>
+        <v>-184863.8683563464</v>
       </c>
       <c r="C6" t="n">
-        <v>405104.0108581984</v>
+        <v>405104.0108581983</v>
       </c>
       <c r="D6" t="n">
-        <v>249300.2047644028</v>
+        <v>249300.2047644029</v>
       </c>
       <c r="E6" t="n">
-        <v>-191778.1480348907</v>
+        <v>-191812.8859603263</v>
       </c>
       <c r="F6" t="n">
-        <v>579274.5433459159</v>
+        <v>579239.8054204803</v>
       </c>
       <c r="G6" t="n">
-        <v>579274.5433459157</v>
+        <v>579239.8054204803</v>
       </c>
       <c r="H6" t="n">
-        <v>579274.5433459159</v>
+        <v>579239.8054204802</v>
       </c>
       <c r="I6" t="n">
-        <v>579274.5433459157</v>
+        <v>579239.8054204803</v>
       </c>
       <c r="J6" t="n">
-        <v>402851.3241533228</v>
+        <v>402816.5862278871</v>
       </c>
       <c r="K6" t="n">
-        <v>579274.5433459159</v>
+        <v>579239.8054204804</v>
       </c>
       <c r="L6" t="n">
-        <v>579274.5433459159</v>
+        <v>579239.8054204801</v>
       </c>
       <c r="M6" t="n">
-        <v>455066.0326378573</v>
+        <v>455031.2947124218</v>
       </c>
       <c r="N6" t="n">
-        <v>579274.5433459159</v>
+        <v>579239.8054204799</v>
       </c>
       <c r="O6" t="n">
-        <v>579274.5433459157</v>
+        <v>579239.8054204803</v>
       </c>
       <c r="P6" t="n">
-        <v>579274.5433459157</v>
+        <v>579239.8054204804</v>
       </c>
     </row>
   </sheetData>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>58.74216000639382</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>303.6383668238969</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>27.35284188332949</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2301000311403314</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,10 +27588,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>50.3189544716123</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>46.83478528866331</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,13 +27825,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>125.1332306165952</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>320.6013132312724</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>152.215430307942</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>24.71494628553032</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28065,10 +28065,10 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.19860367562146</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>552.0015769888928</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,25 +32072,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,19 +32309,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334981</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>172.7144981745678</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,16 +32798,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875795</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>391.6051949514473</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33500,28 +33500,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33673,7 +33673,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>444.2274915982894</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
@@ -35182,16 +35182,16 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>73.4845892791203</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>559.3511648291915</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>441.3914741186752</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35495,22 +35495,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>174.4792836591391</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,16 +36446,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042462</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715731</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37321,7 +37321,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>302.093457676271</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
